--- a/EXCEL/27-06/employee.xlsx
+++ b/EXCEL/27-06/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\֍  ELUX™  ֍\Documents\GitHub\analytics-lab\EXCEL\27-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCF8E55-490B-4733-93CF-0ED271CCCF93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C55BFE-0C83-495C-8636-9D0AB8931C10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{082594D5-B32D-4EF2-A437-9967BA1B0DA1}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,7 +171,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -692,7 +692,7 @@
   <dimension ref="B5:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
